--- a/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Lego_LineareFunktion.xlsx
+++ b/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Lego_LineareFunktion.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User1\Documents\Source-Code\Source-Code\VBA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\SchulungsUnterlagen\Studentenbeispiele\BZU\24_25\Informatik\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29859B8D-782B-4C7B-821E-5B8551AA2EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="18240"/>
+    <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LineareFunktion" sheetId="1" r:id="rId1"/>
+    <sheet name="Aufgaben" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>P1x</t>
   </si>
@@ -52,16 +54,10 @@
     <t>Steigung</t>
   </si>
   <si>
-    <t>yAchse</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
     <t>y</t>
-  </si>
-  <si>
-    <t>y = x * Steigung + yAchse</t>
   </si>
   <si>
     <t>inc:</t>
@@ -93,12 +89,36 @@
   <si>
     <t>Nein</t>
   </si>
+  <si>
+    <t>Aufgaben: Lineare Funktion</t>
+  </si>
+  <si>
+    <t>Bremspunkt:</t>
+  </si>
+  <si>
+    <t>Anhaltepunkt:</t>
+  </si>
+  <si>
+    <t>y-Achse</t>
+  </si>
+  <si>
+    <t>y = x * Steigung + y-Achse</t>
+  </si>
+  <si>
+    <t>Fehler</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Genauigkeit:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,8 +149,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,8 +195,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -480,11 +514,163 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -547,6 +733,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -565,16 +755,117 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2248,70 +2539,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K1" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E3" s="29" t="s">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="K1" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:17" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E3" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
+      <c r="M3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="M3" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="32"/>
-      <c r="P3" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q3" s="28"/>
-    </row>
-    <row r="4" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I4" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="34"/>
-      <c r="K4" s="35" t="s">
-        <v>17</v>
+      <c r="N3" s="34"/>
+      <c r="P3" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="30"/>
+    </row>
+    <row r="4" spans="2:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I4" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="36"/>
+      <c r="K4" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="M4" s="24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N4" s="25">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
       <c r="M6" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="23" t="s">
-        <v>7</v>
-      </c>
       <c r="P6" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
@@ -2328,13 +2629,13 @@
         <v>4</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="K7" s="10" t="s">
         <v>6</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>7</v>
       </c>
       <c r="M7" s="20">
         <v>0</v>
@@ -2352,7 +2653,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="5">
         <v>120</v>
       </c>
@@ -2398,17 +2699,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
       <c r="M9" s="17">
         <f t="shared" ref="M9:M41" si="0">M8+$N$4</f>
         <v>10</v>
       </c>
       <c r="N9" s="16">
-        <f t="shared" ref="N8:N41" si="1">M9*$G$8+$H$8</f>
+        <f t="shared" ref="N9:N41" si="1">M9*$G$8+$H$8</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
       <c r="M10" s="17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2418,7 +2719,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
       <c r="M11" s="17">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2428,7 +2729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
       <c r="M12" s="17">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2438,7 +2739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
       <c r="M13" s="17">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2447,12 +2748,12 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P13" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q13" s="28"/>
-    </row>
-    <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P13" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="30"/>
+    </row>
+    <row r="14" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M14" s="17">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2462,7 +2763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M15" s="17">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2472,13 +2773,13 @@
         <v>20</v>
       </c>
       <c r="P15" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="Q15" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
       <c r="M16" s="17">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2495,7 +2796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="13:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="13:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M17" s="17">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2513,7 +2814,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="13:17" x14ac:dyDescent="0.35">
       <c r="M18" s="17">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2523,7 +2824,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="13:17" x14ac:dyDescent="0.35">
       <c r="M19" s="17">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2533,7 +2834,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="13:17" x14ac:dyDescent="0.35">
       <c r="M20" s="17">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -2543,7 +2844,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="13:17" x14ac:dyDescent="0.35">
       <c r="M21" s="17">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -2552,12 +2853,12 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="P21" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="28"/>
-    </row>
-    <row r="22" spans="13:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P21" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="30"/>
+    </row>
+    <row r="22" spans="13:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M22" s="17">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -2567,7 +2868,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="13:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="13:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M23" s="17">
         <f t="shared" si="0"/>
         <v>80</v>
@@ -2577,13 +2878,13 @@
         <v>60</v>
       </c>
       <c r="P23" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="Q23" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="13:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="13:17" x14ac:dyDescent="0.35">
       <c r="M24" s="17">
         <f t="shared" si="0"/>
         <v>85</v>
@@ -2600,7 +2901,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="13:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="13:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M25" s="17">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -2618,7 +2919,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="13:17" x14ac:dyDescent="0.35">
       <c r="M26" s="17">
         <f t="shared" si="0"/>
         <v>95</v>
@@ -2628,7 +2929,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="13:17" x14ac:dyDescent="0.35">
       <c r="M27" s="17">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -2638,7 +2939,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="13:17" x14ac:dyDescent="0.35">
       <c r="M28" s="17">
         <f t="shared" si="0"/>
         <v>105</v>
@@ -2648,7 +2949,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="13:17" x14ac:dyDescent="0.35">
       <c r="M29" s="17">
         <f t="shared" si="0"/>
         <v>110</v>
@@ -2657,12 +2958,12 @@
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="P29" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q29" s="28"/>
-    </row>
-    <row r="30" spans="13:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P29" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q29" s="30"/>
+    </row>
+    <row r="30" spans="13:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M30" s="17">
         <f t="shared" si="0"/>
         <v>115</v>
@@ -2672,7 +2973,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="13:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="13:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M31" s="17">
         <f t="shared" si="0"/>
         <v>120</v>
@@ -2682,13 +2983,13 @@
         <v>100</v>
       </c>
       <c r="P31" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q31" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="Q31" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="13:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="13:17" x14ac:dyDescent="0.35">
       <c r="M32" s="17">
         <f t="shared" si="0"/>
         <v>125</v>
@@ -2706,7 +3007,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="13:17" x14ac:dyDescent="0.35">
       <c r="M33" s="17">
         <f t="shared" si="0"/>
         <v>130</v>
@@ -2716,7 +3017,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="13:17" x14ac:dyDescent="0.35">
       <c r="M34" s="17">
         <f t="shared" si="0"/>
         <v>135</v>
@@ -2726,7 +3027,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="13:17" x14ac:dyDescent="0.35">
       <c r="M35" s="17">
         <f t="shared" si="0"/>
         <v>140</v>
@@ -2736,7 +3037,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="13:17" x14ac:dyDescent="0.35">
       <c r="M36" s="17">
         <f t="shared" si="0"/>
         <v>145</v>
@@ -2745,12 +3046,12 @@
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="P36" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q36" s="28"/>
-    </row>
-    <row r="37" spans="13:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P36" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q36" s="30"/>
+    </row>
+    <row r="37" spans="13:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M37" s="17">
         <f t="shared" si="0"/>
         <v>150</v>
@@ -2760,7 +3061,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="13:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="13:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M38" s="17">
         <f t="shared" si="0"/>
         <v>155</v>
@@ -2770,13 +3071,13 @@
         <v>135</v>
       </c>
       <c r="P38" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q38" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="Q38" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="13:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="13:17" x14ac:dyDescent="0.35">
       <c r="M39" s="17">
         <f t="shared" si="0"/>
         <v>160</v>
@@ -2793,7 +3094,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="13:17" x14ac:dyDescent="0.35">
       <c r="M40" s="17">
         <f t="shared" si="0"/>
         <v>165</v>
@@ -2803,7 +3104,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="13:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="13:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M41" s="18">
         <f t="shared" si="0"/>
         <v>170</v>
@@ -2825,12 +3126,12 @@
     <mergeCell ref="I4:J4"/>
   </mergeCells>
   <conditionalFormatting sqref="G8:H8 K8">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$K$4=$L$1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$K$1:$L$1</formula1>
     </dataValidation>
   </dataValidations>
@@ -2838,4 +3139,1132 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07E1EE9-B3DF-4FB0-A205-0AB6A561FFDD}">
+  <dimension ref="B1:Q27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W21" sqref="W21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" customWidth="1"/>
+    <col min="8" max="8" width="5" customWidth="1"/>
+    <col min="11" max="11" width="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="P1" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:17" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="45" t="str">
+        <f>LineareFunktion!E3</f>
+        <v>y = x * Steigung + y-Achse</v>
+      </c>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
+    </row>
+    <row r="4" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N4" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="72"/>
+      <c r="P4" s="73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="41"/>
+      <c r="P5" s="74">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="44"/>
+      <c r="O7" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B8" s="50">
+        <v>150</v>
+      </c>
+      <c r="C8" s="51">
+        <v>100</v>
+      </c>
+      <c r="D8" s="51">
+        <v>50</v>
+      </c>
+      <c r="E8" s="59">
+        <v>0</v>
+      </c>
+      <c r="F8" s="62">
+        <v>1</v>
+      </c>
+      <c r="G8" s="53">
+        <f>(L8-F8)/L8</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="53" t="str">
+        <f>IF(ABS(G8) &lt;= $P$5,"ok","nok")</f>
+        <v>ok</v>
+      </c>
+      <c r="I8" s="52">
+        <v>-50</v>
+      </c>
+      <c r="J8" s="53">
+        <f>(M8-I8)/O8</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="54" t="str">
+        <f>IF(ABS(J8) &lt;= $P$5,"ok","nok")</f>
+        <v>ok</v>
+      </c>
+      <c r="L8" s="65">
+        <f>(E8-C8)/(D8-B8)</f>
+        <v>1</v>
+      </c>
+      <c r="M8" s="66">
+        <f>E8-L8*D8</f>
+        <v>-50</v>
+      </c>
+      <c r="N8" s="68"/>
+      <c r="O8" s="50">
+        <v>80</v>
+      </c>
+      <c r="P8" s="66">
+        <f>O8*L8+M8</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B9" s="39">
+        <v>140</v>
+      </c>
+      <c r="C9" s="38">
+        <v>100</v>
+      </c>
+      <c r="D9" s="38">
+        <v>50</v>
+      </c>
+      <c r="E9" s="60">
+        <v>0</v>
+      </c>
+      <c r="F9" s="63">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G9" s="48">
+        <f t="shared" ref="G9:G27" si="0">(L9-F9)/L9</f>
+        <v>9.9999999999999638E-3</v>
+      </c>
+      <c r="H9" s="48" t="str">
+        <f t="shared" ref="H9:H27" si="1">IF(ABS(G9) &lt;= $P$5,"ok","nok")</f>
+        <v>nok</v>
+      </c>
+      <c r="I9" s="49">
+        <v>-55</v>
+      </c>
+      <c r="J9" s="48">
+        <f t="shared" ref="J9:J27" si="2">(M9-I9)/O9</f>
+        <v>-3.7037037037037143E-3</v>
+      </c>
+      <c r="K9" s="55" t="str">
+        <f t="shared" ref="K9:K27" si="3">IF(ABS(J9) &lt;= $P$5,"ok","nok")</f>
+        <v>ok</v>
+      </c>
+      <c r="L9" s="67">
+        <f t="shared" ref="L9:L27" si="4">(E9-C9)/(D9-B9)</f>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="M9" s="40">
+        <f t="shared" ref="M9:M27" si="5">E9-L9*D9</f>
+        <v>-55.555555555555557</v>
+      </c>
+      <c r="N9" s="69"/>
+      <c r="O9" s="39">
+        <v>150</v>
+      </c>
+      <c r="P9" s="40">
+        <f t="shared" ref="P9:P27" si="6">O9*L9+M9</f>
+        <v>111.11111111111113</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B10" s="39">
+        <v>130</v>
+      </c>
+      <c r="C10" s="38">
+        <v>100</v>
+      </c>
+      <c r="D10" s="38">
+        <v>50</v>
+      </c>
+      <c r="E10" s="60">
+        <v>0</v>
+      </c>
+      <c r="F10" s="63">
+        <v>1.2</v>
+      </c>
+      <c r="G10" s="48">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="H10" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>nok</v>
+      </c>
+      <c r="I10" s="49"/>
+      <c r="J10" s="48">
+        <f t="shared" si="2"/>
+        <v>-0.48076923076923078</v>
+      </c>
+      <c r="K10" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>nok</v>
+      </c>
+      <c r="L10" s="67">
+        <f t="shared" si="4"/>
+        <v>1.25</v>
+      </c>
+      <c r="M10" s="40">
+        <f t="shared" si="5"/>
+        <v>-62.5</v>
+      </c>
+      <c r="N10" s="69"/>
+      <c r="O10" s="39">
+        <v>130</v>
+      </c>
+      <c r="P10" s="40">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B11" s="39">
+        <v>120</v>
+      </c>
+      <c r="C11" s="38">
+        <v>100</v>
+      </c>
+      <c r="D11" s="38">
+        <v>50</v>
+      </c>
+      <c r="E11" s="60">
+        <v>0</v>
+      </c>
+      <c r="F11" s="63">
+        <v>1.42</v>
+      </c>
+      <c r="G11" s="48">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000721E-3</v>
+      </c>
+      <c r="H11" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>nok</v>
+      </c>
+      <c r="I11" s="49">
+        <v>-71.400000000000006</v>
+      </c>
+      <c r="J11" s="48">
+        <f t="shared" si="2"/>
+        <v>-3.4423407917379416E-4</v>
+      </c>
+      <c r="K11" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>ok</v>
+      </c>
+      <c r="L11" s="67">
+        <f t="shared" si="4"/>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="M11" s="40">
+        <f t="shared" si="5"/>
+        <v>-71.428571428571431</v>
+      </c>
+      <c r="N11" s="69"/>
+      <c r="O11" s="39">
+        <v>83</v>
+      </c>
+      <c r="P11" s="40">
+        <f t="shared" si="6"/>
+        <v>47.142857142857139</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B12" s="39">
+        <v>110</v>
+      </c>
+      <c r="C12" s="38">
+        <v>100</v>
+      </c>
+      <c r="D12" s="38">
+        <v>50</v>
+      </c>
+      <c r="E12" s="60">
+        <v>0</v>
+      </c>
+      <c r="F12" s="63">
+        <v>1.66</v>
+      </c>
+      <c r="G12" s="48">
+        <f t="shared" si="0"/>
+        <v>4.000000000000092E-3</v>
+      </c>
+      <c r="H12" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="I12" s="49"/>
+      <c r="J12" s="48">
+        <f t="shared" si="2"/>
+        <v>-0.9920634920634922</v>
+      </c>
+      <c r="K12" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>nok</v>
+      </c>
+      <c r="L12" s="67">
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="M12" s="40">
+        <f t="shared" si="5"/>
+        <v>-83.333333333333343</v>
+      </c>
+      <c r="N12" s="69"/>
+      <c r="O12" s="39">
+        <v>84</v>
+      </c>
+      <c r="P12" s="40">
+        <f t="shared" si="6"/>
+        <v>56.666666666666657</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B13" s="39">
+        <v>100</v>
+      </c>
+      <c r="C13" s="38">
+        <v>100</v>
+      </c>
+      <c r="D13" s="38">
+        <v>50</v>
+      </c>
+      <c r="E13" s="60">
+        <v>0</v>
+      </c>
+      <c r="F13" s="63">
+        <v>2</v>
+      </c>
+      <c r="G13" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="I13" s="49"/>
+      <c r="J13" s="48">
+        <f t="shared" si="2"/>
+        <v>-1.1764705882352942</v>
+      </c>
+      <c r="K13" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>nok</v>
+      </c>
+      <c r="L13" s="67">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M13" s="40">
+        <f t="shared" si="5"/>
+        <v>-100</v>
+      </c>
+      <c r="N13" s="69"/>
+      <c r="O13" s="39">
+        <v>85</v>
+      </c>
+      <c r="P13" s="40">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B14" s="39">
+        <v>90</v>
+      </c>
+      <c r="C14" s="38">
+        <v>100</v>
+      </c>
+      <c r="D14" s="38">
+        <v>50</v>
+      </c>
+      <c r="E14" s="60">
+        <v>0</v>
+      </c>
+      <c r="F14" s="63">
+        <v>2.5</v>
+      </c>
+      <c r="G14" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="I14" s="49"/>
+      <c r="J14" s="48">
+        <f t="shared" si="2"/>
+        <v>-1.4534883720930232</v>
+      </c>
+      <c r="K14" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>nok</v>
+      </c>
+      <c r="L14" s="67">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="M14" s="40">
+        <f t="shared" si="5"/>
+        <v>-125</v>
+      </c>
+      <c r="N14" s="69"/>
+      <c r="O14" s="39">
+        <v>86</v>
+      </c>
+      <c r="P14" s="40">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B15" s="39">
+        <v>80</v>
+      </c>
+      <c r="C15" s="38">
+        <v>100</v>
+      </c>
+      <c r="D15" s="38">
+        <v>50</v>
+      </c>
+      <c r="E15" s="60">
+        <v>0</v>
+      </c>
+      <c r="F15" s="63">
+        <v>3.33</v>
+      </c>
+      <c r="G15" s="48">
+        <f t="shared" si="0"/>
+        <v>1.000000000000023E-3</v>
+      </c>
+      <c r="H15" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="I15" s="49"/>
+      <c r="J15" s="48">
+        <f t="shared" si="2"/>
+        <v>-1.9157088122605366</v>
+      </c>
+      <c r="K15" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>nok</v>
+      </c>
+      <c r="L15" s="67">
+        <f t="shared" si="4"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="M15" s="40">
+        <f t="shared" si="5"/>
+        <v>-166.66666666666669</v>
+      </c>
+      <c r="N15" s="69"/>
+      <c r="O15" s="39">
+        <v>87</v>
+      </c>
+      <c r="P15" s="40">
+        <f t="shared" si="6"/>
+        <v>123.33333333333331</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B16" s="42">
+        <v>150</v>
+      </c>
+      <c r="C16" s="38">
+        <v>100</v>
+      </c>
+      <c r="D16" s="38">
+        <v>100</v>
+      </c>
+      <c r="E16" s="60">
+        <v>0</v>
+      </c>
+      <c r="F16" s="63">
+        <v>2</v>
+      </c>
+      <c r="G16" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="I16" s="49"/>
+      <c r="J16" s="48">
+        <f t="shared" si="2"/>
+        <v>-2.2727272727272729</v>
+      </c>
+      <c r="K16" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>nok</v>
+      </c>
+      <c r="L16" s="67">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M16" s="40">
+        <f t="shared" si="5"/>
+        <v>-200</v>
+      </c>
+      <c r="N16" s="69"/>
+      <c r="O16" s="39">
+        <v>88</v>
+      </c>
+      <c r="P16" s="40">
+        <f t="shared" si="6"/>
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B17" s="39">
+        <v>140</v>
+      </c>
+      <c r="C17" s="38">
+        <v>100</v>
+      </c>
+      <c r="D17" s="38">
+        <v>90</v>
+      </c>
+      <c r="E17" s="60">
+        <v>0</v>
+      </c>
+      <c r="F17" s="63">
+        <v>2</v>
+      </c>
+      <c r="G17" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="I17" s="49"/>
+      <c r="J17" s="48">
+        <f t="shared" si="2"/>
+        <v>-2.0224719101123596</v>
+      </c>
+      <c r="K17" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>nok</v>
+      </c>
+      <c r="L17" s="67">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M17" s="40">
+        <f t="shared" si="5"/>
+        <v>-180</v>
+      </c>
+      <c r="N17" s="69"/>
+      <c r="O17" s="39">
+        <v>89</v>
+      </c>
+      <c r="P17" s="40">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B18" s="39">
+        <v>130</v>
+      </c>
+      <c r="C18" s="38">
+        <v>100</v>
+      </c>
+      <c r="D18" s="38">
+        <v>80</v>
+      </c>
+      <c r="E18" s="60">
+        <v>0</v>
+      </c>
+      <c r="F18" s="63">
+        <v>2</v>
+      </c>
+      <c r="G18" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="I18" s="49"/>
+      <c r="J18" s="48">
+        <f t="shared" si="2"/>
+        <v>-1.7777777777777777</v>
+      </c>
+      <c r="K18" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>nok</v>
+      </c>
+      <c r="L18" s="67">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M18" s="40">
+        <f t="shared" si="5"/>
+        <v>-160</v>
+      </c>
+      <c r="N18" s="69"/>
+      <c r="O18" s="39">
+        <v>90</v>
+      </c>
+      <c r="P18" s="40">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B19" s="39">
+        <v>120</v>
+      </c>
+      <c r="C19" s="38">
+        <v>100</v>
+      </c>
+      <c r="D19" s="38">
+        <v>70</v>
+      </c>
+      <c r="E19" s="60">
+        <v>0</v>
+      </c>
+      <c r="F19" s="63">
+        <v>2</v>
+      </c>
+      <c r="G19" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="I19" s="49"/>
+      <c r="J19" s="48">
+        <f t="shared" si="2"/>
+        <v>-1.5384615384615385</v>
+      </c>
+      <c r="K19" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>nok</v>
+      </c>
+      <c r="L19" s="67">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M19" s="40">
+        <f t="shared" si="5"/>
+        <v>-140</v>
+      </c>
+      <c r="N19" s="69"/>
+      <c r="O19" s="39">
+        <v>91</v>
+      </c>
+      <c r="P19" s="40">
+        <f t="shared" si="6"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B20" s="39">
+        <v>110</v>
+      </c>
+      <c r="C20" s="38">
+        <v>100</v>
+      </c>
+      <c r="D20" s="38">
+        <v>60</v>
+      </c>
+      <c r="E20" s="60">
+        <v>0</v>
+      </c>
+      <c r="F20" s="63">
+        <v>2</v>
+      </c>
+      <c r="G20" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="I20" s="49"/>
+      <c r="J20" s="48">
+        <f t="shared" si="2"/>
+        <v>-1.3043478260869565</v>
+      </c>
+      <c r="K20" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>nok</v>
+      </c>
+      <c r="L20" s="67">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M20" s="40">
+        <f t="shared" si="5"/>
+        <v>-120</v>
+      </c>
+      <c r="N20" s="69"/>
+      <c r="O20" s="39">
+        <v>92</v>
+      </c>
+      <c r="P20" s="40">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B21" s="39">
+        <v>100</v>
+      </c>
+      <c r="C21" s="38">
+        <v>100</v>
+      </c>
+      <c r="D21" s="38">
+        <v>50</v>
+      </c>
+      <c r="E21" s="60">
+        <v>0</v>
+      </c>
+      <c r="F21" s="63">
+        <v>2</v>
+      </c>
+      <c r="G21" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="I21" s="49"/>
+      <c r="J21" s="48">
+        <f t="shared" si="2"/>
+        <v>-1.075268817204301</v>
+      </c>
+      <c r="K21" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>nok</v>
+      </c>
+      <c r="L21" s="67">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M21" s="40">
+        <f t="shared" si="5"/>
+        <v>-100</v>
+      </c>
+      <c r="N21" s="69"/>
+      <c r="O21" s="39">
+        <v>93</v>
+      </c>
+      <c r="P21" s="40">
+        <f t="shared" si="6"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B22" s="39">
+        <v>70</v>
+      </c>
+      <c r="C22" s="38">
+        <v>100</v>
+      </c>
+      <c r="D22" s="38">
+        <v>20</v>
+      </c>
+      <c r="E22" s="60">
+        <v>0</v>
+      </c>
+      <c r="F22" s="63">
+        <v>2</v>
+      </c>
+      <c r="G22" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="I22" s="49"/>
+      <c r="J22" s="48">
+        <f t="shared" si="2"/>
+        <v>-0.42553191489361702</v>
+      </c>
+      <c r="K22" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>nok</v>
+      </c>
+      <c r="L22" s="67">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M22" s="40">
+        <f t="shared" si="5"/>
+        <v>-40</v>
+      </c>
+      <c r="N22" s="69"/>
+      <c r="O22" s="39">
+        <v>94</v>
+      </c>
+      <c r="P22" s="40">
+        <f t="shared" si="6"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B23" s="39">
+        <v>80</v>
+      </c>
+      <c r="C23" s="38">
+        <v>100</v>
+      </c>
+      <c r="D23" s="38">
+        <v>20</v>
+      </c>
+      <c r="E23" s="60">
+        <v>0</v>
+      </c>
+      <c r="F23" s="63">
+        <v>1.66</v>
+      </c>
+      <c r="G23" s="48">
+        <f t="shared" si="0"/>
+        <v>4.000000000000092E-3</v>
+      </c>
+      <c r="H23" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="I23" s="49"/>
+      <c r="J23" s="48">
+        <f t="shared" si="2"/>
+        <v>-0.35087719298245618</v>
+      </c>
+      <c r="K23" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>nok</v>
+      </c>
+      <c r="L23" s="67">
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="M23" s="40">
+        <f t="shared" si="5"/>
+        <v>-33.333333333333336</v>
+      </c>
+      <c r="N23" s="69"/>
+      <c r="O23" s="39">
+        <v>95</v>
+      </c>
+      <c r="P23" s="40">
+        <f t="shared" si="6"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B24" s="39">
+        <v>120</v>
+      </c>
+      <c r="C24" s="38">
+        <v>100</v>
+      </c>
+      <c r="D24" s="38">
+        <v>20</v>
+      </c>
+      <c r="E24" s="60">
+        <v>0</v>
+      </c>
+      <c r="F24" s="63"/>
+      <c r="G24" s="48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H24" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>nok</v>
+      </c>
+      <c r="I24" s="49"/>
+      <c r="J24" s="48">
+        <f t="shared" si="2"/>
+        <v>-0.20833333333333334</v>
+      </c>
+      <c r="K24" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>nok</v>
+      </c>
+      <c r="L24" s="67">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M24" s="40">
+        <f t="shared" si="5"/>
+        <v>-20</v>
+      </c>
+      <c r="N24" s="69"/>
+      <c r="O24" s="39">
+        <v>96</v>
+      </c>
+      <c r="P24" s="40">
+        <f t="shared" si="6"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B25" s="39">
+        <v>120</v>
+      </c>
+      <c r="C25" s="38">
+        <v>100</v>
+      </c>
+      <c r="D25" s="38">
+        <v>20</v>
+      </c>
+      <c r="E25" s="60">
+        <v>0</v>
+      </c>
+      <c r="F25" s="63"/>
+      <c r="G25" s="48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H25" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>nok</v>
+      </c>
+      <c r="I25" s="49"/>
+      <c r="J25" s="48">
+        <f t="shared" si="2"/>
+        <v>-0.20618556701030927</v>
+      </c>
+      <c r="K25" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>nok</v>
+      </c>
+      <c r="L25" s="67">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M25" s="40">
+        <f t="shared" si="5"/>
+        <v>-20</v>
+      </c>
+      <c r="N25" s="69"/>
+      <c r="O25" s="39">
+        <v>97</v>
+      </c>
+      <c r="P25" s="40">
+        <f t="shared" si="6"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B26" s="39">
+        <v>120</v>
+      </c>
+      <c r="C26" s="38">
+        <v>100</v>
+      </c>
+      <c r="D26" s="38">
+        <v>20</v>
+      </c>
+      <c r="E26" s="60">
+        <v>0</v>
+      </c>
+      <c r="F26" s="63"/>
+      <c r="G26" s="48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H26" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>nok</v>
+      </c>
+      <c r="I26" s="49"/>
+      <c r="J26" s="48">
+        <f t="shared" si="2"/>
+        <v>-0.20408163265306123</v>
+      </c>
+      <c r="K26" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>nok</v>
+      </c>
+      <c r="L26" s="67">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M26" s="40">
+        <f t="shared" si="5"/>
+        <v>-20</v>
+      </c>
+      <c r="N26" s="69"/>
+      <c r="O26" s="39">
+        <v>98</v>
+      </c>
+      <c r="P26" s="40">
+        <f t="shared" si="6"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="5">
+        <v>120</v>
+      </c>
+      <c r="C27" s="6">
+        <v>100</v>
+      </c>
+      <c r="D27" s="6">
+        <v>20</v>
+      </c>
+      <c r="E27" s="61">
+        <v>0</v>
+      </c>
+      <c r="F27" s="64"/>
+      <c r="G27" s="57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H27" s="57" t="str">
+        <f t="shared" si="1"/>
+        <v>nok</v>
+      </c>
+      <c r="I27" s="56"/>
+      <c r="J27" s="57">
+        <f t="shared" si="2"/>
+        <v>-0.20202020202020202</v>
+      </c>
+      <c r="K27" s="58" t="str">
+        <f t="shared" si="3"/>
+        <v>nok</v>
+      </c>
+      <c r="L27" s="8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M27" s="9">
+        <f t="shared" si="5"/>
+        <v>-20</v>
+      </c>
+      <c r="N27" s="70"/>
+      <c r="O27" s="5">
+        <v>99</v>
+      </c>
+      <c r="P27" s="9">
+        <f t="shared" si="6"/>
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="E3:H3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L8:M27 P8:P27">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$P$4=$Q$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4" xr:uid="{F5C4AA8D-1D44-4637-B33A-6CDD8A73602B}">
+      <formula1>$P$1:$Q$1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>